--- a/Overall_Rebate_Efficiency.xlsx
+++ b/Overall_Rebate_Efficiency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cogentholdings-my.sharepoint.com/personal/john_tan_sh-cogent_com_sg/Documents/Documents/Linda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{38B7C5C2-BCDD-4727-BBED-9A6509AFB655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF2CC29-7E8F-4AE5-8140-296AD84A4818}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{38B7C5C2-BCDD-4727-BBED-9A6509AFB655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9C88EA7-9DFB-4E29-911B-6A682D8F8495}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C0E73409-90F9-4F3A-A281-E5B658230860}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="OverallRebateEfficiency" sheetId="1" r:id="rId1"/>
     <sheet name="PSA_LOLO" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Week_2</t>
   </si>
@@ -130,6 +130,36 @@
   </si>
   <si>
     <t>Week_30</t>
+  </si>
+  <si>
+    <t>Week_31</t>
+  </si>
+  <si>
+    <t>Week_32</t>
+  </si>
+  <si>
+    <t>Week_33</t>
+  </si>
+  <si>
+    <t>Week_34</t>
+  </si>
+  <si>
+    <t>Week_35</t>
+  </si>
+  <si>
+    <t>Week_36</t>
+  </si>
+  <si>
+    <t>Week_37</t>
+  </si>
+  <si>
+    <t>Week_38</t>
+  </si>
+  <si>
+    <t>Week_39</t>
+  </si>
+  <si>
+    <t>Week_40</t>
   </si>
 </sst>
 </file>
@@ -516,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8068D1-8FEE-4DE6-A49E-26630330CB1A}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +575,7 @@
     <col min="24" max="28" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,8 +663,38 @@
       <c r="AC1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.81902758125101194</v>
       </c>
@@ -721,6 +781,36 @@
       </c>
       <c r="AC2" s="1">
         <v>0.77214239490772107</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0.80410000000000004</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.78369999999999995</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0.79510000000000003</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0.79239999999999999</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0.77449999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -750,10 +840,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>40297</v>
+        <v>38763</v>
       </c>
       <c r="B2">
-        <v>22479</v>
+        <v>13629</v>
       </c>
     </row>
   </sheetData>
